--- a/PDDE/entrega 9/e9_planilha_tailine.xlsx
+++ b/PDDE/entrega 9/e9_planilha_tailine.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\gradest-1\PDDE\entrega 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B489D86-E971-4F88-B6A6-3DC6C79EC0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413AD1D1-28A7-46DB-B919-09184456386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B335838C-8A1F-4DE5-9B6B-F1584A76A56F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4BC71A82-194A-4959-B971-11AB97F9CCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelas 1.1 e 1.2" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelas 2.1 e 2.2" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelas 2.1 e 2.2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelas 3.1 e 3.2" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelas 4.1 e 4.2" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelas 4.1 e 4.2" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelas 5.1 e 5.2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="39">
   <si>
-    <t>Tabela 1.1 - Número de escolas segundo UF e faixa de alunos por UEx (Centro-Oeste, 2024)</t>
+    <t>Tabela 1.1 - Número de escolas segundo UF e quant. de alunos por UEx (Centro-Oeste, 2024)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Unidade Executora</t>
+    <t>Cadastro de Unidade Executora</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -43,19 +44,19 @@
     <t>Sem UEx</t>
   </si>
   <si>
-    <t>Centro-Oeste</t>
+    <t>Total (Centro-Oeste)</t>
   </si>
   <si>
-    <t>Número de alunos</t>
+    <t>Quantidade de alunos</t>
   </si>
   <si>
     <t>Contagem</t>
   </si>
   <si>
-    <t>&lt;50</t>
+    <t>Menor ou igual a 50</t>
   </si>
   <si>
-    <t>50+</t>
+    <t>Maior que 50</t>
   </si>
   <si>
     <t>UF</t>
@@ -94,25 +95,34 @@
     <t>Fonte: Consulta Escola 2024; Censo Escolar 2023</t>
   </si>
   <si>
-    <t>Tabela 1.2 - Porcentagem de escolas segundo UF e faixa de alunos por UEx (Centro-Oeste, 2024)</t>
+    <t>Tabela 1.2 - Porcentagem de escolas segundo UF e quant. de alunos por UEx (Centro-Oeste, 2024)</t>
   </si>
   <si>
     <t>N % da coluna</t>
   </si>
   <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Estadual</t>
+  </si>
+  <si>
+    <t>TP_DEPENDENCIA</t>
+  </si>
+  <si>
     <t>Pagos</t>
   </si>
   <si>
-    <t>Não pagos</t>
+    <t>Nao Pagos</t>
   </si>
   <si>
     <t>Situação de pagamento</t>
   </si>
   <si>
-    <t>Tabela 4.2 - Porcentagem de escolas segundo UF e quant. de alunos por situação de pagamento (Centro-Oeste, 2024)</t>
+    <t>Tabela 2.2 - Porcentagem de escolas segundo UF e dependência administrativa por situação de pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
-    <t>Tabela 4.1 -  Número de escolas segundo UF e quant. de alunos por situação de pagamento (Centro-Oeste, 2024)</t>
+    <t>Tabela 2.1 - Número de escolas segundo UF e dependência administrativa por situação de pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
     <t>Tabela 3.2 - Porcentagem de escolas segundo UF e UEx por situação de pagamento (Centro-Oeste, 2024)</t>
@@ -121,19 +131,16 @@
     <t>Tabela 3.1 -  Número de escolas segundo UF e UEx por situação de pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
-    <t>Municipal</t>
+    <t>Tabela 4.2 - Porcentagem de escolas segundo UF e quant. de alunos por situação de pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
-    <t>Estadual</t>
+    <t>Tabela 4.1 -  Número de escolas segundo UF e quant. de Alunos_Mat por situação de pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
-    <t>Dependência Administrativa</t>
+    <t>Tabela 5.2 - Porcentagem de escolas segundo UF e quant. de alunos por UEx e Situação de Pagamento (Centro-Oeste, 2024)</t>
   </si>
   <si>
-    <t>Tabela 2.2 - Porcentagem de escolas segundo UF e dependência administrativa por situação de pagamento (Centro-Oeste, 2024)</t>
-  </si>
-  <si>
-    <t>Tabela 2.1 - Número de escolas segundo UF e dependência administrativa por situação de pagamento (Centro-Oeste, 2024)</t>
+    <t>Tabela 5.1 - Número de escolas segundo UF e quant. de alunos por UEx e Situação de Pagamento (Centro-Oeste, 2024)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -399,11 +406,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thick">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -489,6 +559,12 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -496,12 +572,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,6 +642,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6739868-60C0-4B31-B10D-5E9FF70910EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF9BC2B-B6AC-4207-9008-F9E8F2003DE1}">
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -998,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="27.95" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -1032,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:9" ht="27.95" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -1107,10 +1192,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="14">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F8" s="15">
-        <v>3162</v>
+        <v>3156</v>
       </c>
       <c r="G8" s="15">
         <v>72</v>
@@ -1153,16 +1238,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="14">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F10" s="15">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="G10" s="15">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H10" s="15">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I10" s="16">
         <v>2246</v>
@@ -1176,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="E11" s="14">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F11" s="15">
-        <v>7103</v>
+        <v>7093</v>
       </c>
       <c r="G11" s="15">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="15">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I11" s="16">
         <v>7720</v>
@@ -1274,10 +1359,10 @@
         <v>15</v>
       </c>
       <c r="E15" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="15">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="15">
         <v>5</v>
@@ -1297,10 +1382,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="15">
         <v>10</v>
@@ -1399,10 +1484,10 @@
         <v>81</v>
       </c>
       <c r="G20" s="15">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I20" s="16">
         <v>205</v>
@@ -1422,10 +1507,10 @@
         <v>141</v>
       </c>
       <c r="G21" s="15">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="16">
         <v>273</v>
@@ -1712,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="27.95" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -1746,7 +1831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="27.95" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -1798,16 +1883,16 @@
         <v>12</v>
       </c>
       <c r="E40" s="20">
-        <v>1.3986013986013986E-2</v>
+        <v>1.3513513513513513E-2</v>
       </c>
       <c r="F40" s="21">
-        <v>9.1510629311558483E-2</v>
+        <v>9.1639644720146615E-2</v>
       </c>
       <c r="G40" s="21">
         <v>0</v>
       </c>
       <c r="H40" s="21">
-        <v>4.2253521126760563E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I40" s="22">
         <v>8.549222797927461E-2</v>
@@ -1821,16 +1906,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="23">
-        <v>0.6398601398601399</v>
+        <v>0.63851351351351349</v>
       </c>
       <c r="F41" s="24">
-        <v>0.445164015204843</v>
+        <v>0.44494572113351194</v>
       </c>
       <c r="G41" s="24">
-        <v>0.38095238095238093</v>
+        <v>0.37305699481865284</v>
       </c>
       <c r="H41" s="24">
-        <v>0.42253521126760563</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="I41" s="25">
         <v>0.45038860103626943</v>
@@ -1844,16 +1929,16 @@
         <v>14</v>
       </c>
       <c r="E42" s="23">
-        <v>3.8461538461538464E-2</v>
+        <v>3.7162162162162164E-2</v>
       </c>
       <c r="F42" s="24">
-        <v>0.18456990004223567</v>
+        <v>0.18483011419709572</v>
       </c>
       <c r="G42" s="24">
-        <v>2.1164021164021163E-2</v>
+        <v>2.0725388601036274E-2</v>
       </c>
       <c r="H42" s="24">
-        <v>7.746478873239436E-2</v>
+        <v>7.9710144927536225E-2</v>
       </c>
       <c r="I42" s="25">
         <v>0.17318652849740931</v>
@@ -1867,16 +1952,16 @@
         <v>15</v>
       </c>
       <c r="E43" s="23">
-        <v>0.30769230769230771</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="F43" s="24">
-        <v>0.27875545544136282</v>
+        <v>0.27858451994924571</v>
       </c>
       <c r="G43" s="24">
-        <v>0.59788359788359791</v>
+        <v>0.60621761658031093</v>
       </c>
       <c r="H43" s="24">
-        <v>0.45774647887323944</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="I43" s="25">
         <v>0.29093264248704664</v>
@@ -1942,10 +2027,10 @@
         <v>13</v>
       </c>
       <c r="E46" s="23">
-        <v>0.44444444444444442</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F46" s="24">
-        <v>0.15</v>
+        <v>0.15068493150684931</v>
       </c>
       <c r="G46" s="24">
         <v>0.5</v>
@@ -1965,10 +2050,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="23">
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="F47" s="24">
-        <v>0.23636363636363636</v>
+        <v>0.23744292237442921</v>
       </c>
       <c r="G47" s="24">
         <v>0</v>
@@ -1988,10 +2073,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="23">
-        <v>0.44444444444444442</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F48" s="24">
-        <v>0.61363636363636365</v>
+        <v>0.61187214611872143</v>
       </c>
       <c r="G48" s="24">
         <v>0.5</v>
@@ -2067,7 +2152,7 @@
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="G51" s="24">
-        <v>2.8571428571428571E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="H51" s="24">
         <v>0</v>
@@ -2090,10 +2175,10 @@
         <v>0.41134751773049644</v>
       </c>
       <c r="G52" s="24">
-        <v>1.4285714285714285E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="H52" s="24">
-        <v>6.25E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I52" s="25">
         <v>0.23076923076923075</v>
@@ -2113,10 +2198,10 @@
         <v>0.57446808510638303</v>
       </c>
       <c r="G53" s="24">
-        <v>0.95714285714285718</v>
+        <v>0.95833333333333348</v>
       </c>
       <c r="H53" s="24">
-        <v>0.9375</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="I53" s="25">
         <v>0.75091575091575091</v>
@@ -2448,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC10530-D3E0-4783-8C9D-80ACFA56C134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D375C09-57C0-462A-863F-0BFE80F05305}">
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,14 +2544,14 @@
   <cols>
     <col min="1" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2487,14 +2572,14 @@
       <c r="E2" s="45"/>
       <c r="F2" s="46"/>
       <c r="G2" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="27.95" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -2502,10 +2587,10 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
@@ -2542,16 +2627,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G5" s="11">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="I5" s="13">
         <v>660</v>
@@ -2564,7 +2649,7 @@
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G6" s="14">
         <v>0</v>
@@ -2586,10 +2671,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="14">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H7" s="15">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="I7" s="16">
         <v>660</v>
@@ -2603,16 +2688,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="14">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H8" s="15">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="I8" s="16">
         <v>961</v>
@@ -2625,13 +2710,13 @@
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G9" s="14">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="H9" s="15">
-        <v>2309</v>
+        <v>2333</v>
       </c>
       <c r="I9" s="16">
         <v>2516</v>
@@ -2647,10 +2732,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="14">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H10" s="15">
-        <v>3134</v>
+        <v>3168</v>
       </c>
       <c r="I10" s="16">
         <v>3477</v>
@@ -2664,16 +2749,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G11" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="15">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I11" s="16">
         <v>349</v>
@@ -2686,13 +2771,13 @@
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G12" s="14">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="I12" s="16">
         <v>988</v>
@@ -2708,10 +2793,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="14">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H13" s="15">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="I13" s="16">
         <v>1337</v>
@@ -2725,16 +2810,16 @@
         <v>15</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G14" s="14">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H14" s="15">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="I14" s="16">
         <v>673</v>
@@ -2747,13 +2832,13 @@
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G15" s="14">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="H15" s="15">
-        <v>1367</v>
+        <v>1397</v>
       </c>
       <c r="I15" s="16">
         <v>1573</v>
@@ -2769,10 +2854,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="14">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="H16" s="15">
-        <v>1924</v>
+        <v>1959</v>
       </c>
       <c r="I16" s="16">
         <v>2246</v>
@@ -2792,10 +2877,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -2814,7 +2899,7 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G18" s="14">
         <v>0</v>
@@ -2853,10 +2938,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -2875,7 +2960,7 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G21" s="14">
         <v>6</v>
@@ -2914,10 +2999,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G23" s="14">
         <v>0</v>
@@ -2936,7 +3021,7 @@
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G24" s="14">
         <v>6</v>
@@ -2975,16 +3060,16 @@
         <v>15</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="14">
+        <v>14</v>
+      </c>
+      <c r="H26" s="15">
         <v>33</v>
-      </c>
-      <c r="G26" s="14">
-        <v>16</v>
-      </c>
-      <c r="H26" s="15">
-        <v>31</v>
       </c>
       <c r="I26" s="16">
         <v>47</v>
@@ -2997,13 +3082,13 @@
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G27" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" s="15">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I27" s="16">
         <v>110</v>
@@ -3019,10 +3104,10 @@
         <v>16</v>
       </c>
       <c r="G28" s="14">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H28" s="15">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I28" s="16">
         <v>157</v>
@@ -3040,10 +3125,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
@@ -3062,7 +3147,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G30" s="14">
         <v>0</v>
@@ -3101,10 +3186,10 @@
         <v>13</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G32" s="14">
         <v>1</v>
@@ -3123,7 +3208,7 @@
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -3162,10 +3247,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G35" s="14">
         <v>1</v>
@@ -3184,7 +3269,7 @@
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
       <c r="F36" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G36" s="14">
         <v>5</v>
@@ -3223,16 +3308,16 @@
         <v>15</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G38" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38" s="16">
         <v>71</v>
@@ -3245,13 +3330,13 @@
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
       <c r="F39" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G39" s="14">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H39" s="15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I39" s="16">
         <v>134</v>
@@ -3267,10 +3352,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="14">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H40" s="15">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I40" s="16">
         <v>205</v>
@@ -3288,10 +3373,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -3310,7 +3395,7 @@
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
       <c r="F42" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -3349,10 +3434,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G44" s="14">
         <v>2</v>
@@ -3371,13 +3456,13 @@
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
       <c r="F45" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G45" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H45" s="15">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I45" s="16">
         <v>59</v>
@@ -3393,10 +3478,10 @@
         <v>16</v>
       </c>
       <c r="G46" s="14">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H46" s="15">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I46" s="16">
         <v>72</v>
@@ -3410,10 +3495,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -3432,7 +3517,7 @@
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
       <c r="F48" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G48" s="14">
         <v>1</v>
@@ -3471,16 +3556,16 @@
         <v>15</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G50" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" s="16">
         <v>5</v>
@@ -3493,7 +3578,7 @@
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
       <c r="F51" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G51" s="14">
         <v>2</v>
@@ -3515,10 +3600,10 @@
         <v>16</v>
       </c>
       <c r="G52" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I52" s="16">
         <v>10</v>
@@ -3536,10 +3621,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -3558,7 +3643,7 @@
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
       <c r="F54" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -3597,10 +3682,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -3619,7 +3704,7 @@
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -3658,10 +3743,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -3680,7 +3765,7 @@
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -3719,10 +3804,10 @@
         <v>15</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -3741,7 +3826,7 @@
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
       <c r="F63" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G63" s="14">
         <v>4</v>
@@ -3787,7 +3872,7 @@
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A67" s="43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -3808,14 +3893,14 @@
       <c r="E68" s="45"/>
       <c r="F68" s="46"/>
       <c r="G68" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H68" s="54"/>
       <c r="I68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1">
+    <row r="69" spans="1:9" ht="27.95" customHeight="1">
       <c r="A69" s="47"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -3823,10 +3908,10 @@
       <c r="E69" s="48"/>
       <c r="F69" s="49"/>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>6</v>
@@ -3863,10 +3948,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G71" s="20">
         <v>1</v>
@@ -3885,7 +3970,7 @@
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
       <c r="F72" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G72" s="23">
         <v>0</v>
@@ -3924,16 +4009,16 @@
         <v>13</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G74" s="23">
-        <v>0.39650145772594753</v>
+        <v>0.40776699029126212</v>
       </c>
       <c r="H74" s="24">
-        <v>0.26324186343331207</v>
+        <v>0.26357323232323232</v>
       </c>
       <c r="I74" s="25">
         <v>0.27638769053781997</v>
@@ -3946,13 +4031,13 @@
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G75" s="23">
-        <v>0.60349854227405253</v>
+        <v>0.59223300970873782</v>
       </c>
       <c r="H75" s="24">
-        <v>0.73675813656668798</v>
+        <v>0.73642676767676762</v>
       </c>
       <c r="I75" s="25">
         <v>0.72361230946218003</v>
@@ -3985,16 +4070,16 @@
         <v>14</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G77" s="23">
-        <v>0.14285714285714285</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H77" s="24">
-        <v>0.26687598116169547</v>
+        <v>0.26573426573426573</v>
       </c>
       <c r="I77" s="25">
         <v>0.26103216155572179</v>
@@ -4007,13 +4092,13 @@
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
       <c r="F78" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G78" s="23">
-        <v>0.8571428571428571</v>
+        <v>0.86</v>
       </c>
       <c r="H78" s="24">
-        <v>0.73312401883830458</v>
+        <v>0.73426573426573427</v>
       </c>
       <c r="I78" s="25">
         <v>0.73896783844427827</v>
@@ -4046,16 +4131,16 @@
         <v>15</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G80" s="23">
-        <v>0.36024844720496896</v>
+        <v>0.38675958188153309</v>
       </c>
       <c r="H80" s="24">
-        <v>0.2895010395010395</v>
+        <v>0.28688106176620726</v>
       </c>
       <c r="I80" s="25">
         <v>0.2996438112199466</v>
@@ -4068,13 +4153,13 @@
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
       <c r="F81" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G81" s="23">
-        <v>0.63975155279503104</v>
+        <v>0.61324041811846686</v>
       </c>
       <c r="H81" s="24">
-        <v>0.71049896049896044</v>
+        <v>0.7131189382337928</v>
       </c>
       <c r="I81" s="25">
         <v>0.70035618878005357</v>
@@ -4113,10 +4198,10 @@
         <v>12</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G83" s="23">
         <v>0</v>
@@ -4135,7 +4220,7 @@
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
       <c r="F84" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G84" s="23">
         <v>0</v>
@@ -4174,10 +4259,10 @@
         <v>13</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G86" s="23">
         <v>0</v>
@@ -4196,7 +4281,7 @@
       <c r="D87" s="34"/>
       <c r="E87" s="34"/>
       <c r="F87" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G87" s="23">
         <v>1</v>
@@ -4235,10 +4320,10 @@
         <v>14</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G89" s="23">
         <v>0</v>
@@ -4257,7 +4342,7 @@
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
       <c r="F90" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G90" s="23">
         <v>1</v>
@@ -4296,16 +4381,16 @@
         <v>15</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G92" s="23">
         <v>0.5</v>
       </c>
       <c r="H92" s="24">
-        <v>0.248</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="I92" s="25">
         <v>0.29936305732484075</v>
@@ -4318,13 +4403,13 @@
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
       <c r="F93" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G93" s="23">
         <v>0.5</v>
       </c>
       <c r="H93" s="24">
-        <v>0.752</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="I93" s="25">
         <v>0.70063694267515908</v>
@@ -4361,10 +4446,10 @@
         <v>12</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G95" s="23">
         <v>0</v>
@@ -4383,7 +4468,7 @@
       <c r="D96" s="34"/>
       <c r="E96" s="34"/>
       <c r="F96" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G96" s="23">
         <v>0</v>
@@ -4422,10 +4507,10 @@
         <v>13</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G98" s="23">
         <v>1</v>
@@ -4444,7 +4529,7 @@
       <c r="D99" s="34"/>
       <c r="E99" s="34"/>
       <c r="F99" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G99" s="23">
         <v>0</v>
@@ -4483,10 +4568,10 @@
         <v>14</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G101" s="23">
         <v>0.16666666666666663</v>
@@ -4505,7 +4590,7 @@
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
       <c r="F102" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G102" s="23">
         <v>0.83333333333333348</v>
@@ -4544,16 +4629,16 @@
         <v>15</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G104" s="23">
-        <v>0.36363636363636365</v>
+        <v>0.37349397590361444</v>
       </c>
       <c r="H104" s="24">
-        <v>0.33333333333333326</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="I104" s="25">
         <v>0.34634146341463412</v>
@@ -4566,13 +4651,13 @@
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
       <c r="F105" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G105" s="23">
-        <v>0.63636363636363635</v>
+        <v>0.62650602409638556</v>
       </c>
       <c r="H105" s="24">
-        <v>0.66666666666666652</v>
+        <v>0.67213114754098358</v>
       </c>
       <c r="I105" s="25">
         <v>0.65365853658536599</v>
@@ -4609,10 +4694,10 @@
         <v>12</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G107" s="23">
         <v>0</v>
@@ -4631,7 +4716,7 @@
       <c r="D108" s="34"/>
       <c r="E108" s="34"/>
       <c r="F108" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G108" s="23">
         <v>0</v>
@@ -4670,16 +4755,16 @@
         <v>13</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G110" s="23">
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="H110" s="24">
-        <v>0.18965517241379309</v>
+        <v>0.171875</v>
       </c>
       <c r="I110" s="25">
         <v>0.18055555555555552</v>
@@ -4692,13 +4777,13 @@
       <c r="D111" s="34"/>
       <c r="E111" s="34"/>
       <c r="F111" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G111" s="23">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="H111" s="24">
-        <v>0.81034482758620685</v>
+        <v>0.828125</v>
       </c>
       <c r="I111" s="25">
         <v>0.81944444444444442</v>
@@ -4731,10 +4816,10 @@
         <v>14</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G113" s="23">
         <v>0</v>
@@ -4753,7 +4838,7 @@
       <c r="D114" s="34"/>
       <c r="E114" s="34"/>
       <c r="F114" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G114" s="23">
         <v>1</v>
@@ -4792,16 +4877,16 @@
         <v>15</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G116" s="23">
-        <v>0.5</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="H116" s="24">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I116" s="25">
         <v>0.5</v>
@@ -4814,13 +4899,13 @@
       <c r="D117" s="34"/>
       <c r="E117" s="34"/>
       <c r="F117" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G117" s="23">
-        <v>0.5</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="H117" s="24">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I117" s="25">
         <v>0.5</v>
@@ -4857,10 +4942,10 @@
         <v>12</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G119" s="23">
         <v>0</v>
@@ -4879,7 +4964,7 @@
       <c r="D120" s="34"/>
       <c r="E120" s="34"/>
       <c r="F120" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G120" s="23">
         <v>0</v>
@@ -4918,10 +5003,10 @@
         <v>13</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G122" s="23">
         <v>0</v>
@@ -4940,7 +5025,7 @@
       <c r="D123" s="34"/>
       <c r="E123" s="34"/>
       <c r="F123" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G123" s="23">
         <v>0</v>
@@ -4979,10 +5064,10 @@
         <v>14</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G125" s="23">
         <v>0</v>
@@ -5001,7 +5086,7 @@
       <c r="D126" s="34"/>
       <c r="E126" s="34"/>
       <c r="F126" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G126" s="23">
         <v>0</v>
@@ -5040,10 +5125,10 @@
         <v>15</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G128" s="23">
         <v>0</v>
@@ -5062,7 +5147,7 @@
       <c r="D129" s="34"/>
       <c r="E129" s="34"/>
       <c r="F129" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G129" s="23">
         <v>1</v>
@@ -5228,7 +5313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED2B369-AD15-49DF-94FA-6F12FEB25185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A075A7-D4C2-42D7-92DF-E61B80DDAF82}">
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,14 +5324,14 @@
   <cols>
     <col min="1" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5267,14 +5352,14 @@
       <c r="E2" s="45"/>
       <c r="F2" s="46"/>
       <c r="G2" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="27.95" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -5282,10 +5367,10 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
@@ -5321,17 +5406,17 @@
       <c r="D5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H5" s="12">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="I5" s="13">
         <v>654</v>
@@ -5342,7 +5427,7 @@
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5361,15 +5446,15 @@
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="14">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H7" s="15">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="I7" s="16">
         <v>660</v>
@@ -5382,17 +5467,17 @@
       <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="14">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="H8" s="15">
-        <v>3085</v>
+        <v>3119</v>
       </c>
       <c r="I8" s="16">
         <v>3345</v>
@@ -5403,7 +5488,7 @@
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
@@ -5422,15 +5507,15 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="14">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H10" s="15">
-        <v>3134</v>
+        <v>3168</v>
       </c>
       <c r="I10" s="16">
         <v>3477</v>
@@ -5443,17 +5528,17 @@
       <c r="D11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="14">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11" s="15">
-        <v>1271</v>
+        <v>1284</v>
       </c>
       <c r="I11" s="16">
         <v>1322</v>
@@ -5464,7 +5549,7 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="9" t="s">
         <v>5</v>
       </c>
@@ -5483,15 +5568,15 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="14">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H13" s="15">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="I13" s="16">
         <v>1337</v>
@@ -5504,17 +5589,17 @@
       <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="14">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H14" s="15">
-        <v>1827</v>
+        <v>1862</v>
       </c>
       <c r="I14" s="16">
         <v>2068</v>
@@ -5525,7 +5610,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
@@ -5544,15 +5629,15 @@
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="14">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="H16" s="15">
-        <v>1924</v>
+        <v>1959</v>
       </c>
       <c r="I16" s="16">
         <v>2246</v>
@@ -5571,7 +5656,7 @@
       <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -5592,7 +5677,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="9" t="s">
         <v>5</v>
       </c>
@@ -5611,7 +5696,7 @@
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +5717,7 @@
       <c r="D20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -5653,7 +5738,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="9" t="s">
         <v>5</v>
       </c>
@@ -5672,7 +5757,7 @@
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="9" t="s">
         <v>16</v>
       </c>
@@ -5693,7 +5778,7 @@
       <c r="D23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -5714,7 +5799,7 @@
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
@@ -5733,7 +5818,7 @@
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="9" t="s">
         <v>16</v>
       </c>
@@ -5754,17 +5839,17 @@
       <c r="D26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H26" s="15">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I26" s="16">
         <v>147</v>
@@ -5775,7 +5860,7 @@
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
@@ -5794,15 +5879,15 @@
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="14">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H28" s="15">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I28" s="16">
         <v>157</v>
@@ -5819,7 +5904,7 @@
       <c r="D29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -5840,7 +5925,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="9" t="s">
         <v>5</v>
       </c>
@@ -5859,7 +5944,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="9" t="s">
         <v>16</v>
       </c>
@@ -5880,7 +5965,7 @@
       <c r="D32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -5901,7 +5986,7 @@
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="9" t="s">
         <v>5</v>
       </c>
@@ -5920,7 +6005,7 @@
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="9" t="s">
         <v>16</v>
       </c>
@@ -5941,7 +6026,7 @@
       <c r="D35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -5962,7 +6047,7 @@
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="9" t="s">
         <v>5</v>
       </c>
@@ -5981,7 +6066,7 @@
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="9" t="s">
         <v>16</v>
       </c>
@@ -6002,17 +6087,17 @@
       <c r="D38" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="14">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H38" s="15">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I38" s="16">
         <v>108</v>
@@ -6023,7 +6108,7 @@
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="9" t="s">
         <v>5</v>
       </c>
@@ -6042,15 +6127,15 @@
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="14">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H40" s="15">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I40" s="16">
         <v>205</v>
@@ -6067,7 +6152,7 @@
       <c r="D41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -6088,7 +6173,7 @@
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="9" t="s">
         <v>5</v>
       </c>
@@ -6107,7 +6192,7 @@
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="9" t="s">
         <v>16</v>
       </c>
@@ -6128,17 +6213,17 @@
       <c r="D44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H44" s="15">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I44" s="16">
         <v>66</v>
@@ -6149,7 +6234,7 @@
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="9" t="s">
         <v>5</v>
       </c>
@@ -6168,15 +6253,15 @@
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="14">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H46" s="15">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I46" s="16">
         <v>72</v>
@@ -6189,7 +6274,7 @@
       <c r="D47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -6210,7 +6295,7 @@
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="9" t="s">
         <v>5</v>
       </c>
@@ -6229,7 +6314,7 @@
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="9" t="s">
         <v>16</v>
       </c>
@@ -6250,17 +6335,17 @@
       <c r="D50" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I50" s="16">
         <v>10</v>
@@ -6271,7 +6356,7 @@
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="9" t="s">
         <v>5</v>
       </c>
@@ -6290,15 +6375,15 @@
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I52" s="16">
         <v>10</v>
@@ -6315,7 +6400,7 @@
       <c r="D53" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -6336,7 +6421,7 @@
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="9" t="s">
         <v>5</v>
       </c>
@@ -6355,7 +6440,7 @@
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="9" t="s">
         <v>16</v>
       </c>
@@ -6376,7 +6461,7 @@
       <c r="D56" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -6397,7 +6482,7 @@
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="9" t="s">
         <v>5</v>
       </c>
@@ -6416,7 +6501,7 @@
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="9" t="s">
         <v>16</v>
       </c>
@@ -6437,7 +6522,7 @@
       <c r="D59" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -6458,7 +6543,7 @@
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="9" t="s">
         <v>5</v>
       </c>
@@ -6477,7 +6562,7 @@
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="9" t="s">
         <v>16</v>
       </c>
@@ -6498,7 +6583,7 @@
       <c r="D62" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -6519,7 +6604,7 @@
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="E63" s="58"/>
       <c r="F63" s="9" t="s">
         <v>5</v>
       </c>
@@ -6538,7 +6623,7 @@
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="10" t="s">
         <v>16</v>
       </c>
@@ -6567,7 +6652,7 @@
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A67" s="43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -6588,14 +6673,14 @@
       <c r="E68" s="45"/>
       <c r="F68" s="46"/>
       <c r="G68" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H68" s="54"/>
       <c r="I68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1">
+    <row r="69" spans="1:9" ht="27.95" customHeight="1">
       <c r="A69" s="47"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -6603,10 +6688,10 @@
       <c r="E69" s="48"/>
       <c r="F69" s="49"/>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>6</v>
@@ -6642,14 +6727,14 @@
       <c r="D71" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G71" s="20">
-        <v>0.95</v>
+        <v>0.94594594594594594</v>
       </c>
       <c r="H71" s="21">
         <v>1</v>
@@ -6663,17 +6748,17 @@
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="23">
-        <v>0.05</v>
+        <v>5.405405405405405E-2</v>
       </c>
       <c r="H72" s="24">
         <v>0</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="30">
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
@@ -6682,7 +6767,7 @@
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="9" t="s">
         <v>16</v>
       </c>
@@ -6703,17 +6788,17 @@
       <c r="D74" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="23">
-        <v>0.75801749271137031</v>
+        <v>0.73139158576051788</v>
       </c>
       <c r="H74" s="24">
-        <v>0.98436502871729414</v>
+        <v>0.98453282828282829</v>
       </c>
       <c r="I74" s="25">
         <v>0.96203623813632444</v>
@@ -6724,15 +6809,15 @@
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="23">
-        <v>0.24198250728862974</v>
+        <v>0.26860841423948217</v>
       </c>
       <c r="H75" s="24">
-        <v>1.5634971282705808E-2</v>
+        <v>1.5467171717171718E-2</v>
       </c>
       <c r="I75" s="25">
         <v>3.7963761863675581E-2</v>
@@ -6743,7 +6828,7 @@
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="E76" s="59"/>
       <c r="F76" s="9" t="s">
         <v>16</v>
       </c>
@@ -6764,17 +6849,17 @@
       <c r="D77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="23">
-        <v>0.80952380952380953</v>
+        <v>0.76</v>
       </c>
       <c r="H77" s="24">
-        <v>0.99764521193092615</v>
+        <v>0.99766899766899764</v>
       </c>
       <c r="I77" s="25">
         <v>0.98878085265519811</v>
@@ -6785,15 +6870,15 @@
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="23">
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="H78" s="32">
-        <v>2.3547880690737832E-3</v>
+        <v>0.24</v>
+      </c>
+      <c r="H78" s="29">
+        <v>2.331002331002331E-3</v>
       </c>
       <c r="I78" s="25">
         <v>1.1219147344801794E-2</v>
@@ -6804,7 +6889,7 @@
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="9" t="s">
         <v>16</v>
       </c>
@@ -6825,17 +6910,17 @@
       <c r="D80" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G80" s="23">
-        <v>0.74844720496894412</v>
+        <v>0.71777003484320556</v>
       </c>
       <c r="H80" s="24">
-        <v>0.94958419958419971</v>
+        <v>0.95048494129658001</v>
       </c>
       <c r="I80" s="25">
         <v>0.92074799643811223</v>
@@ -6846,15 +6931,15 @@
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="23">
-        <v>0.25155279503105588</v>
+        <v>0.28222996515679444</v>
       </c>
       <c r="H81" s="24">
-        <v>5.0415800415800426E-2</v>
+        <v>4.9515058703420121E-2</v>
       </c>
       <c r="I81" s="25">
         <v>7.9252003561887802E-2</v>
@@ -6865,7 +6950,7 @@
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="E82" s="59"/>
       <c r="F82" s="9" t="s">
         <v>16</v>
       </c>
@@ -6892,7 +6977,7 @@
       <c r="D83" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="9" t="s">
@@ -6913,7 +6998,7 @@
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="9" t="s">
         <v>5</v>
       </c>
@@ -6932,7 +7017,7 @@
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
+      <c r="E85" s="59"/>
       <c r="F85" s="9" t="s">
         <v>16</v>
       </c>
@@ -6953,7 +7038,7 @@
       <c r="D86" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -6974,7 +7059,7 @@
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="9" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +7078,7 @@
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
+      <c r="E88" s="59"/>
       <c r="F88" s="9" t="s">
         <v>16</v>
       </c>
@@ -7014,7 +7099,7 @@
       <c r="D89" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -7035,7 +7120,7 @@
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="9" t="s">
         <v>5</v>
       </c>
@@ -7054,7 +7139,7 @@
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="E91" s="59"/>
       <c r="F91" s="9" t="s">
         <v>16</v>
       </c>
@@ -7075,17 +7160,17 @@
       <c r="D92" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G92" s="23">
-        <v>0.84375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H92" s="24">
-        <v>0.96</v>
+        <v>0.96124031007751942</v>
       </c>
       <c r="I92" s="25">
         <v>0.93630573248407645</v>
@@ -7096,15 +7181,15 @@
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="23">
-        <v>0.15625</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="H93" s="24">
-        <v>0.04</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="I93" s="25">
         <v>6.3694267515923567E-2</v>
@@ -7115,7 +7200,7 @@
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
         <v>16</v>
       </c>
@@ -7140,7 +7225,7 @@
       <c r="D95" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="9" t="s">
@@ -7161,7 +7246,7 @@
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="9" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +7265,7 @@
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+      <c r="E97" s="59"/>
       <c r="F97" s="9" t="s">
         <v>16</v>
       </c>
@@ -7201,7 +7286,7 @@
       <c r="D98" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -7222,7 +7307,7 @@
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="9" t="s">
         <v>5</v>
       </c>
@@ -7241,7 +7326,7 @@
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
+      <c r="E100" s="59"/>
       <c r="F100" s="9" t="s">
         <v>16</v>
       </c>
@@ -7262,7 +7347,7 @@
       <c r="D101" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="9" t="s">
@@ -7283,7 +7368,7 @@
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="9" t="s">
         <v>5</v>
       </c>
@@ -7302,7 +7387,7 @@
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="9" t="s">
         <v>16</v>
       </c>
@@ -7323,17 +7408,17 @@
       <c r="D104" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="23">
-        <v>0.54545454545454541</v>
+        <v>0.51807228915662651</v>
       </c>
       <c r="H104" s="24">
-        <v>0.51282051282051277</v>
+        <v>0.53278688524590168</v>
       </c>
       <c r="I104" s="25">
         <v>0.52682926829268295</v>
@@ -7344,15 +7429,15 @@
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="23">
-        <v>0.45454545454545453</v>
+        <v>0.48192771084337349</v>
       </c>
       <c r="H105" s="24">
-        <v>0.48717948717948717</v>
+        <v>0.46721311475409844</v>
       </c>
       <c r="I105" s="25">
         <v>0.47317073170731705</v>
@@ -7363,7 +7448,7 @@
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="9" t="s">
         <v>16</v>
       </c>
@@ -7388,7 +7473,7 @@
       <c r="D107" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="34" t="s">
+      <c r="E107" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="9" t="s">
@@ -7409,7 +7494,7 @@
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
@@ -7428,7 +7513,7 @@
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="9" t="s">
         <v>16</v>
       </c>
@@ -7449,17 +7534,17 @@
       <c r="D110" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G110" s="23">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="H110" s="24">
-        <v>0.93103448275862066</v>
+        <v>0.9375</v>
       </c>
       <c r="I110" s="25">
         <v>0.91666666666666652</v>
@@ -7470,15 +7555,15 @@
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="23">
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="H111" s="24">
-        <v>6.8965517241379309E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I111" s="25">
         <v>8.3333333333333315E-2</v>
@@ -7489,7 +7574,7 @@
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
+      <c r="E112" s="59"/>
       <c r="F112" s="9" t="s">
         <v>16</v>
       </c>
@@ -7510,7 +7595,7 @@
       <c r="D113" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="9" t="s">
@@ -7531,7 +7616,7 @@
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="9" t="s">
         <v>5</v>
       </c>
@@ -7550,7 +7635,7 @@
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="E115" s="59"/>
       <c r="F115" s="9" t="s">
         <v>16</v>
       </c>
@@ -7571,7 +7656,7 @@
       <c r="D116" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="9" t="s">
@@ -7592,7 +7677,7 @@
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
+      <c r="E117" s="58"/>
       <c r="F117" s="9" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7696,7 @@
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
+      <c r="E118" s="59"/>
       <c r="F118" s="9" t="s">
         <v>16</v>
       </c>
@@ -7636,7 +7721,7 @@
       <c r="D119" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="34" t="s">
+      <c r="E119" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -7657,7 +7742,7 @@
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
+      <c r="E120" s="58"/>
       <c r="F120" s="9" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +7761,7 @@
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="E121" s="59"/>
       <c r="F121" s="9" t="s">
         <v>16</v>
       </c>
@@ -7697,7 +7782,7 @@
       <c r="D122" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="34" t="s">
+      <c r="E122" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="9" t="s">
@@ -7718,7 +7803,7 @@
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
+      <c r="E123" s="58"/>
       <c r="F123" s="9" t="s">
         <v>5</v>
       </c>
@@ -7737,7 +7822,7 @@
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="E124" s="59"/>
       <c r="F124" s="9" t="s">
         <v>16</v>
       </c>
@@ -7758,7 +7843,7 @@
       <c r="D125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="34" t="s">
+      <c r="E125" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -7779,7 +7864,7 @@
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="9" t="s">
         <v>5</v>
       </c>
@@ -7798,7 +7883,7 @@
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
+      <c r="E127" s="59"/>
       <c r="F127" s="9" t="s">
         <v>16</v>
       </c>
@@ -7819,7 +7904,7 @@
       <c r="D128" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="34" t="s">
+      <c r="E128" s="57" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="9" t="s">
@@ -7840,7 +7925,7 @@
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="9" t="s">
         <v>5</v>
       </c>
@@ -7859,7 +7944,7 @@
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="10" t="s">
         <v>16</v>
       </c>
@@ -7889,7 +7974,6 @@
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A131:I131"/>
-    <mergeCell ref="E107:E109"/>
     <mergeCell ref="D110:D112"/>
     <mergeCell ref="E110:E112"/>
     <mergeCell ref="D113:D115"/>
@@ -7910,7 +7994,6 @@
     <mergeCell ref="B83:B94"/>
     <mergeCell ref="C83:C94"/>
     <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
     <mergeCell ref="D86:D88"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="D89:D91"/>
@@ -7930,6 +8013,7 @@
     <mergeCell ref="B107:B118"/>
     <mergeCell ref="C107:C118"/>
     <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A67:I67"/>
     <mergeCell ref="A68:F70"/>
@@ -7942,16 +8026,7 @@
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
     <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
     <mergeCell ref="B53:B64"/>
     <mergeCell ref="C53:C64"/>
     <mergeCell ref="D53:D55"/>
@@ -7962,13 +8037,16 @@
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A17:A64"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:C28"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C41:C52"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="D26:D28"/>
@@ -7983,9 +8061,12 @@
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C41:C52"/>
-    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:F4"/>
     <mergeCell ref="G2:H2"/>
@@ -7997,9 +8078,13 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A17:A64"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C28"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
@@ -8008,7 +8093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F99F9D-9910-4829-A442-829A1DA52B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD23431-3D0E-4041-A8F5-A88562989EBF}">
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8019,14 +8104,14 @@
   <cols>
     <col min="1" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="43" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -8047,14 +8132,14 @@
       <c r="E2" s="45"/>
       <c r="F2" s="46"/>
       <c r="G2" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="27.95" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -8062,10 +8147,10 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
@@ -8101,7 +8186,7 @@
       <c r="D5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="60" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -8122,15 +8207,15 @@
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="14">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H6" s="15">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I6" s="16">
         <v>656</v>
@@ -8141,15 +8226,15 @@
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="14">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H7" s="15">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="I7" s="16">
         <v>660</v>
@@ -8162,20 +8247,20 @@
       <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="14">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H8" s="15">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I8" s="16">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
@@ -8183,18 +8268,18 @@
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="14">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H9" s="15">
-        <v>2932</v>
+        <v>2955</v>
       </c>
       <c r="I9" s="16">
-        <v>3222</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
@@ -8202,15 +8287,15 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="14">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H10" s="15">
-        <v>3134</v>
+        <v>3168</v>
       </c>
       <c r="I10" s="16">
         <v>3477</v>
@@ -8223,7 +8308,7 @@
       <c r="D11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -8244,15 +8329,15 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="14">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H12" s="15">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="I12" s="16">
         <v>1322</v>
@@ -8263,15 +8348,15 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="14">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H13" s="15">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="I13" s="16">
         <v>1337</v>
@@ -8284,20 +8369,20 @@
       <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="15">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I14" s="16">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
@@ -8305,18 +8390,18 @@
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="14">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="H15" s="15">
-        <v>1774</v>
+        <v>1802</v>
       </c>
       <c r="I15" s="16">
-        <v>2045</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
@@ -8324,15 +8409,15 @@
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="14">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="H16" s="15">
-        <v>1924</v>
+        <v>1959</v>
       </c>
       <c r="I16" s="16">
         <v>2246</v>
@@ -8351,7 +8436,7 @@
       <c r="D17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -8372,7 +8457,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="9" t="s">
         <v>10</v>
       </c>
@@ -8391,7 +8476,7 @@
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="9" t="s">
         <v>16</v>
       </c>
@@ -8412,7 +8497,7 @@
       <c r="D20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -8433,7 +8518,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="9" t="s">
         <v>10</v>
       </c>
@@ -8452,7 +8537,7 @@
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="9" t="s">
         <v>16</v>
       </c>
@@ -8473,7 +8558,7 @@
       <c r="D23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -8494,7 +8579,7 @@
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="9" t="s">
         <v>10</v>
       </c>
@@ -8513,7 +8598,7 @@
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="9" t="s">
         <v>16</v>
       </c>
@@ -8534,7 +8619,7 @@
       <c r="D26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -8544,10 +8629,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
@@ -8555,18 +8640,18 @@
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H27" s="15">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I27" s="16">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
@@ -8574,15 +8659,15 @@
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="14">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H28" s="15">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I28" s="16">
         <v>157</v>
@@ -8599,7 +8684,7 @@
       <c r="D29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -8620,7 +8705,7 @@
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="9" t="s">
         <v>10</v>
       </c>
@@ -8639,7 +8724,7 @@
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="9" t="s">
         <v>16</v>
       </c>
@@ -8660,7 +8745,7 @@
       <c r="D32" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -8681,7 +8766,7 @@
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="9" t="s">
         <v>10</v>
       </c>
@@ -8700,7 +8785,7 @@
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="9" t="s">
         <v>16</v>
       </c>
@@ -8721,7 +8806,7 @@
       <c r="D35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -8742,7 +8827,7 @@
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="9" t="s">
         <v>10</v>
       </c>
@@ -8761,7 +8846,7 @@
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="9" t="s">
         <v>16</v>
       </c>
@@ -8782,7 +8867,7 @@
       <c r="D38" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -8792,10 +8877,10 @@
         <v>27</v>
       </c>
       <c r="H38" s="15">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I38" s="16">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
@@ -8803,18 +8888,18 @@
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="14">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H39" s="15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I39" s="16">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
@@ -8822,15 +8907,15 @@
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="14">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H40" s="15">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I40" s="16">
         <v>205</v>
@@ -8847,7 +8932,7 @@
       <c r="D41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -8868,7 +8953,7 @@
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="9" t="s">
         <v>10</v>
       </c>
@@ -8887,7 +8972,7 @@
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="9" t="s">
         <v>16</v>
       </c>
@@ -8908,17 +8993,17 @@
       <c r="D44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H44" s="15">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I44" s="16">
         <v>31</v>
@@ -8929,15 +9014,15 @@
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I45" s="16">
         <v>41</v>
@@ -8948,15 +9033,15 @@
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="14">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H46" s="15">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I46" s="16">
         <v>72</v>
@@ -8969,7 +9054,7 @@
       <c r="D47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -8990,7 +9075,7 @@
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="9" t="s">
         <v>10</v>
       </c>
@@ -9009,7 +9094,7 @@
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="9" t="s">
         <v>16</v>
       </c>
@@ -9030,7 +9115,7 @@
       <c r="D50" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -9051,15 +9136,15 @@
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="16">
         <v>8</v>
@@ -9070,15 +9155,15 @@
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I52" s="16">
         <v>10</v>
@@ -9095,7 +9180,7 @@
       <c r="D53" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -9116,7 +9201,7 @@
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="9" t="s">
         <v>10</v>
       </c>
@@ -9135,7 +9220,7 @@
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="9" t="s">
         <v>16</v>
       </c>
@@ -9156,7 +9241,7 @@
       <c r="D56" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -9177,7 +9262,7 @@
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="9" t="s">
         <v>10</v>
       </c>
@@ -9196,7 +9281,7 @@
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="9" t="s">
         <v>16</v>
       </c>
@@ -9217,7 +9302,7 @@
       <c r="D59" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -9238,7 +9323,7 @@
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="9" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +9342,7 @@
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="9" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9363,7 @@
       <c r="D62" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -9299,7 +9384,7 @@
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="E63" s="58"/>
       <c r="F63" s="9" t="s">
         <v>10</v>
       </c>
@@ -9318,7 +9403,7 @@
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="10" t="s">
         <v>16</v>
       </c>
@@ -9347,7 +9432,7 @@
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A67" s="43" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -9368,14 +9453,14 @@
       <c r="E68" s="45"/>
       <c r="F68" s="46"/>
       <c r="G68" s="53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H68" s="54"/>
       <c r="I68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1">
+    <row r="69" spans="1:9" ht="27.95" customHeight="1">
       <c r="A69" s="47"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -9383,10 +9468,10 @@
       <c r="E69" s="48"/>
       <c r="F69" s="49"/>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>6</v>
@@ -9422,19 +9507,19 @@
       <c r="D71" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="60" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="31">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="H71" s="30">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I71" s="29">
+      <c r="G71" s="33">
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="H71" s="32">
+        <v>5.4644808743169408E-3</v>
+      </c>
+      <c r="I71" s="31">
         <v>6.0606060606060606E-3</v>
       </c>
     </row>
@@ -9443,15 +9528,15 @@
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="23">
-        <v>0.9916666666666667</v>
+        <v>0.99099099099099097</v>
       </c>
       <c r="H72" s="24">
-        <v>0.99444444444444446</v>
+        <v>0.99453551912568305</v>
       </c>
       <c r="I72" s="25">
         <v>0.9939393939393939</v>
@@ -9462,7 +9547,7 @@
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="9" t="s">
         <v>16</v>
       </c>
@@ -9483,20 +9568,20 @@
       <c r="D74" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="23">
-        <v>0.15451895043731778</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="H74" s="24">
-        <v>6.4454371410338232E-2</v>
+        <v>6.7234848484848481E-2</v>
       </c>
       <c r="I74" s="25">
-        <v>7.3339085418464192E-2</v>
+        <v>7.5064710957722172E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1">
@@ -9504,18 +9589,18 @@
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="23">
-        <v>0.84548104956268222</v>
+        <v>0.84466019417475724</v>
       </c>
       <c r="H75" s="24">
-        <v>0.93554562858966184</v>
+        <v>0.9327651515151516</v>
       </c>
       <c r="I75" s="25">
-        <v>0.92666091458153577</v>
+        <v>0.92493528904227784</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1">
@@ -9523,7 +9608,7 @@
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="E76" s="59"/>
       <c r="F76" s="9" t="s">
         <v>16</v>
       </c>
@@ -9544,17 +9629,17 @@
       <c r="D77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G77" s="23">
-        <v>3.1746031746031744E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H77" s="24">
-        <v>1.0204081632653062E-2</v>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="I77" s="25">
         <v>1.1219147344801794E-2</v>
@@ -9565,15 +9650,15 @@
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="23">
-        <v>0.96825396825396826</v>
+        <v>0.96</v>
       </c>
       <c r="H78" s="24">
-        <v>0.98979591836734704</v>
+        <v>0.98989898989898994</v>
       </c>
       <c r="I78" s="25">
         <v>0.98878085265519811</v>
@@ -9584,7 +9669,7 @@
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="9" t="s">
         <v>16</v>
       </c>
@@ -9605,20 +9690,20 @@
       <c r="D80" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="23">
-        <v>0.15838509316770186</v>
+        <v>0.18118466898954705</v>
       </c>
       <c r="H80" s="24">
-        <v>7.7962577962577967E-2</v>
+        <v>8.0142930066360391E-2</v>
       </c>
       <c r="I80" s="25">
-        <v>8.9492430988423882E-2</v>
+        <v>9.3054318788958146E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1">
@@ -9626,18 +9711,18 @@
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="23">
-        <v>0.84161490683229812</v>
+        <v>0.81881533101045312</v>
       </c>
       <c r="H81" s="24">
-        <v>0.92203742203742189</v>
+        <v>0.91985706993363958</v>
       </c>
       <c r="I81" s="25">
-        <v>0.91050756901157615</v>
+        <v>0.9069456812110418</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1">
@@ -9645,7 +9730,7 @@
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="E82" s="59"/>
       <c r="F82" s="9" t="s">
         <v>16</v>
       </c>
@@ -9672,7 +9757,7 @@
       <c r="D83" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="9" t="s">
@@ -9693,7 +9778,7 @@
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="9" t="s">
         <v>10</v>
       </c>
@@ -9712,7 +9797,7 @@
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
+      <c r="E85" s="59"/>
       <c r="F85" s="9" t="s">
         <v>16</v>
       </c>
@@ -9733,7 +9818,7 @@
       <c r="D86" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -9754,7 +9839,7 @@
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="9" t="s">
         <v>10</v>
       </c>
@@ -9773,7 +9858,7 @@
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
+      <c r="E88" s="59"/>
       <c r="F88" s="9" t="s">
         <v>16</v>
       </c>
@@ -9794,7 +9879,7 @@
       <c r="D89" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -9815,7 +9900,7 @@
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="9" t="s">
         <v>10</v>
       </c>
@@ -9834,7 +9919,7 @@
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="E91" s="59"/>
       <c r="F91" s="9" t="s">
         <v>16</v>
       </c>
@@ -9855,20 +9940,20 @@
       <c r="D92" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="23">
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H92" s="24">
-        <v>0.10400000000000001</v>
+        <v>0.10852713178294573</v>
       </c>
       <c r="I92" s="25">
-        <v>0.10828025477707007</v>
+        <v>0.11464968152866244</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1">
@@ -9876,18 +9961,18 @@
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="23">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H93" s="24">
-        <v>0.89600000000000013</v>
+        <v>0.8914728682170544</v>
       </c>
       <c r="I93" s="25">
-        <v>0.89171974522292996</v>
+        <v>0.88535031847133761</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1">
@@ -9895,7 +9980,7 @@
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="9" t="s">
         <v>16</v>
       </c>
@@ -9920,7 +10005,7 @@
       <c r="D95" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="9" t="s">
@@ -9941,7 +10026,7 @@
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="9" t="s">
         <v>10</v>
       </c>
@@ -9960,7 +10045,7 @@
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+      <c r="E97" s="59"/>
       <c r="F97" s="9" t="s">
         <v>16</v>
       </c>
@@ -9981,7 +10066,7 @@
       <c r="D98" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -10002,7 +10087,7 @@
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="E99" s="58"/>
       <c r="F99" s="9" t="s">
         <v>10</v>
       </c>
@@ -10021,7 +10106,7 @@
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
+      <c r="E100" s="59"/>
       <c r="F100" s="9" t="s">
         <v>16</v>
       </c>
@@ -10042,7 +10127,7 @@
       <c r="D101" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="9" t="s">
@@ -10063,7 +10148,7 @@
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="9" t="s">
         <v>10</v>
       </c>
@@ -10082,7 +10167,7 @@
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="9" t="s">
         <v>16</v>
       </c>
@@ -10103,20 +10188,20 @@
       <c r="D104" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="23">
-        <v>0.30681818181818182</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="H104" s="24">
-        <v>0.57264957264957261</v>
+        <v>0.56557377049180324</v>
       </c>
       <c r="I104" s="25">
-        <v>0.45853658536585373</v>
+        <v>0.46829268292682935</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1">
@@ -10124,18 +10209,18 @@
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="23">
-        <v>0.69318181818181823</v>
+        <v>0.67469879518072284</v>
       </c>
       <c r="H105" s="24">
-        <v>0.42735042735042733</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="I105" s="25">
-        <v>0.54146341463414638</v>
+        <v>0.53170731707317076</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1">
@@ -10143,7 +10228,7 @@
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="9" t="s">
         <v>16</v>
       </c>
@@ -10168,7 +10253,7 @@
       <c r="D107" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="34" t="s">
+      <c r="E107" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F107" s="9" t="s">
@@ -10189,7 +10274,7 @@
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="9" t="s">
         <v>10</v>
       </c>
@@ -10208,7 +10293,7 @@
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="9" t="s">
         <v>16</v>
       </c>
@@ -10229,17 +10314,17 @@
       <c r="D110" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G110" s="23">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="H110" s="24">
-        <v>0.37931034482758619</v>
+        <v>0.421875</v>
       </c>
       <c r="I110" s="25">
         <v>0.43055555555555558</v>
@@ -10250,15 +10335,15 @@
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="23">
-        <v>0.35714285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="H111" s="24">
-        <v>0.62068965517241381</v>
+        <v>0.578125</v>
       </c>
       <c r="I111" s="25">
         <v>0.56944444444444442</v>
@@ -10269,7 +10354,7 @@
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
+      <c r="E112" s="59"/>
       <c r="F112" s="9" t="s">
         <v>16</v>
       </c>
@@ -10290,7 +10375,7 @@
       <c r="D113" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F113" s="9" t="s">
@@ -10311,7 +10396,7 @@
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="9" t="s">
         <v>10</v>
       </c>
@@ -10330,7 +10415,7 @@
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="E115" s="59"/>
       <c r="F115" s="9" t="s">
         <v>16</v>
       </c>
@@ -10351,14 +10436,14 @@
       <c r="D116" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="23">
-        <v>0.5</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="H116" s="24">
         <v>0</v>
@@ -10372,12 +10457,12 @@
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
+      <c r="E117" s="58"/>
       <c r="F117" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="23">
-        <v>0.5</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="H117" s="24">
         <v>1</v>
@@ -10391,7 +10476,7 @@
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
+      <c r="E118" s="59"/>
       <c r="F118" s="9" t="s">
         <v>16</v>
       </c>
@@ -10416,7 +10501,7 @@
       <c r="D119" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="34" t="s">
+      <c r="E119" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -10437,7 +10522,7 @@
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
+      <c r="E120" s="58"/>
       <c r="F120" s="9" t="s">
         <v>10</v>
       </c>
@@ -10456,7 +10541,7 @@
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="E121" s="59"/>
       <c r="F121" s="9" t="s">
         <v>16</v>
       </c>
@@ -10477,7 +10562,7 @@
       <c r="D122" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="34" t="s">
+      <c r="E122" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="9" t="s">
@@ -10498,7 +10583,7 @@
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
+      <c r="E123" s="58"/>
       <c r="F123" s="9" t="s">
         <v>10</v>
       </c>
@@ -10517,7 +10602,7 @@
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="E124" s="59"/>
       <c r="F124" s="9" t="s">
         <v>16</v>
       </c>
@@ -10538,7 +10623,7 @@
       <c r="D125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="34" t="s">
+      <c r="E125" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -10559,7 +10644,7 @@
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="9" t="s">
         <v>10</v>
       </c>
@@ -10578,7 +10663,7 @@
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
+      <c r="E127" s="59"/>
       <c r="F127" s="9" t="s">
         <v>16</v>
       </c>
@@ -10599,7 +10684,7 @@
       <c r="D128" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="34" t="s">
+      <c r="E128" s="57" t="s">
         <v>7</v>
       </c>
       <c r="F128" s="9" t="s">
@@ -10620,7 +10705,7 @@
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="9" t="s">
         <v>10</v>
       </c>
@@ -10639,7 +10724,7 @@
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="10" t="s">
         <v>16</v>
       </c>
@@ -10669,7 +10754,6 @@
   </sheetData>
   <mergeCells count="112">
     <mergeCell ref="A131:I131"/>
-    <mergeCell ref="E107:E109"/>
     <mergeCell ref="D110:D112"/>
     <mergeCell ref="E110:E112"/>
     <mergeCell ref="D113:D115"/>
@@ -10690,7 +10774,6 @@
     <mergeCell ref="B83:B94"/>
     <mergeCell ref="C83:C94"/>
     <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
     <mergeCell ref="D86:D88"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="D89:D91"/>
@@ -10710,6 +10793,7 @@
     <mergeCell ref="B107:B118"/>
     <mergeCell ref="C107:C118"/>
     <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A67:I67"/>
     <mergeCell ref="A68:F70"/>
@@ -10722,16 +10806,7 @@
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
     <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
     <mergeCell ref="B53:B64"/>
     <mergeCell ref="C53:C64"/>
     <mergeCell ref="D53:D55"/>
@@ -10742,13 +10817,16 @@
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A17:A64"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:C28"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C41:C52"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="D26:D28"/>
@@ -10763,9 +10841,12 @@
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C41:C52"/>
-    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:F4"/>
     <mergeCell ref="G2:H2"/>
@@ -10777,9 +10858,3187 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A17:A64"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C28"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+  </mergeCells>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE43C20-8D64-42BD-8D7F-1E65D741501C}">
+  <dimension ref="A1:K115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="11" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickTop="1">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1">
+      <c r="A7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>104</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15">
+        <v>546</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15">
+        <v>201</v>
+      </c>
+      <c r="I9" s="15">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15">
+        <v>60</v>
+      </c>
+      <c r="K9" s="16">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14">
+        <v>164</v>
+      </c>
+      <c r="H10" s="15">
+        <v>2955</v>
+      </c>
+      <c r="I10" s="15">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>37</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>11</v>
+      </c>
+      <c r="K11" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1274</v>
+      </c>
+      <c r="I12" s="15">
+        <v>3</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="14">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15">
+        <v>174</v>
+      </c>
+      <c r="I13" s="15">
+        <v>20</v>
+      </c>
+      <c r="J13" s="15">
+        <v>61</v>
+      </c>
+      <c r="K13" s="16">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1802</v>
+      </c>
+      <c r="I14" s="15">
+        <v>97</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14">
+        <v>59</v>
+      </c>
+      <c r="H15" s="15">
+        <v>516</v>
+      </c>
+      <c r="I15" s="15">
+        <v>44</v>
+      </c>
+      <c r="J15" s="15">
+        <v>138</v>
+      </c>
+      <c r="K15" s="16">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="14">
+        <v>237</v>
+      </c>
+      <c r="H16" s="15">
+        <v>6577</v>
+      </c>
+      <c r="I16" s="15">
+        <v>149</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="40"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="14">
+        <v>10</v>
+      </c>
+      <c r="H20" s="15">
+        <v>31</v>
+      </c>
+      <c r="I20" s="15">
+        <v>3</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="40"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15">
+        <v>47</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="14">
+        <v>4</v>
+      </c>
+      <c r="H23" s="15">
+        <v>19</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>5</v>
+      </c>
+      <c r="K23" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="14">
+        <v>9</v>
+      </c>
+      <c r="H24" s="15">
+        <v>115</v>
+      </c>
+      <c r="I24" s="15">
+        <v>5</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="14">
+        <v>6</v>
+      </c>
+      <c r="H25" s="15">
+        <v>26</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2</v>
+      </c>
+      <c r="J25" s="15">
+        <v>6</v>
+      </c>
+      <c r="K25" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="14">
+        <v>22</v>
+      </c>
+      <c r="H26" s="15">
+        <v>193</v>
+      </c>
+      <c r="I26" s="15">
+        <v>8</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="40"/>
+      <c r="B27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>3</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2</v>
+      </c>
+      <c r="K31" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>55</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="14">
+        <v>15</v>
+      </c>
+      <c r="H33" s="15">
+        <v>28</v>
+      </c>
+      <c r="I33" s="15">
+        <v>12</v>
+      </c>
+      <c r="J33" s="15">
+        <v>28</v>
+      </c>
+      <c r="K33" s="16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="14">
+        <v>12</v>
+      </c>
+      <c r="H34" s="15">
+        <v>53</v>
+      </c>
+      <c r="I34" s="15">
+        <v>57</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="14">
+        <v>16</v>
+      </c>
+      <c r="H35" s="15">
+        <v>31</v>
+      </c>
+      <c r="I35" s="15">
+        <v>13</v>
+      </c>
+      <c r="J35" s="15">
+        <v>30</v>
+      </c>
+      <c r="K35" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="14">
+        <v>14</v>
+      </c>
+      <c r="H36" s="15">
+        <v>110</v>
+      </c>
+      <c r="I36" s="15">
+        <v>59</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="40"/>
+      <c r="B37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="40"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="14">
+        <v>3</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="40"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="14">
+        <v>23</v>
+      </c>
+      <c r="H40" s="15">
+        <v>37</v>
+      </c>
+      <c r="I40" s="15">
+        <v>4</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="40"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>5</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="40"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="14">
+        <v>2</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="40"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>7</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="40"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="14">
+        <v>5</v>
+      </c>
+      <c r="H45" s="15">
+        <v>4</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2</v>
+      </c>
+      <c r="K45" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="40"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="14">
+        <v>23</v>
+      </c>
+      <c r="H46" s="15">
+        <v>49</v>
+      </c>
+      <c r="I46" s="15">
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="40"/>
+      <c r="B47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="40"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="40"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1">
+      <c r="A50" s="40"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1">
+      <c r="A51" s="40"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1">
+      <c r="A52" s="40"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1">
+      <c r="A53" s="40"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>4</v>
+      </c>
+      <c r="K53" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1">
+      <c r="A54" s="40"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1">
+      <c r="A55" s="40"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>4</v>
+      </c>
+      <c r="K55" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="42"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18">
+        <v>0</v>
+      </c>
+      <c r="K56" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.95" customHeight="1" thickTop="1">
+      <c r="A57" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A59" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" thickTop="1">
+      <c r="A60" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="56"/>
+      <c r="K61" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1">
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="56"/>
+      <c r="K62" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="37"/>
+    </row>
+    <row r="64" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1" thickTop="1">
+      <c r="A65" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="H65" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="I65" s="21">
+        <v>0</v>
+      </c>
+      <c r="J65" s="21">
+        <v>1</v>
+      </c>
+      <c r="K65" s="22">
+        <v>0.16818181818181815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="40"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H66" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="I66" s="24">
+        <v>0</v>
+      </c>
+      <c r="J66" s="24">
+        <v>0</v>
+      </c>
+      <c r="K66" s="25">
+        <v>0.83181818181818168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1">
+      <c r="A67" s="40"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="23">
+        <v>0.13227513227513227</v>
+      </c>
+      <c r="H67" s="24">
+        <v>6.3688212927756657E-2</v>
+      </c>
+      <c r="I67" s="24">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="J67" s="24">
+        <v>1</v>
+      </c>
+      <c r="K67" s="25">
+        <v>8.8869715271786026E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1">
+      <c r="A68" s="40"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="23">
+        <v>0.86772486772486768</v>
+      </c>
+      <c r="H68" s="24">
+        <v>0.93631178707224338</v>
+      </c>
+      <c r="I68" s="24">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J68" s="24">
+        <v>0</v>
+      </c>
+      <c r="K68" s="25">
+        <v>0.911130284728214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1">
+      <c r="A69" s="40"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="23">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H69" s="24">
+        <v>2.8222730739893211E-2</v>
+      </c>
+      <c r="I69" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J69" s="24">
+        <v>1</v>
+      </c>
+      <c r="K69" s="25">
+        <v>3.7397157816005985E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1">
+      <c r="A70" s="40"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="23">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0.97177726926010677</v>
+      </c>
+      <c r="I70" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J70" s="24">
+        <v>0</v>
+      </c>
+      <c r="K70" s="25">
+        <v>0.96260284218399406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1">
+      <c r="A71" s="40"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="23">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="H71" s="24">
+        <v>8.8056680161943318E-2</v>
+      </c>
+      <c r="I71" s="24">
+        <v>0.17094017094017094</v>
+      </c>
+      <c r="J71" s="24">
+        <v>1</v>
+      </c>
+      <c r="K71" s="25">
+        <v>0.12778272484416742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1">
+      <c r="A72" s="40"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="23">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="H72" s="24">
+        <v>0.91194331983805665</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0.82905982905982911</v>
+      </c>
+      <c r="J72" s="24">
+        <v>0</v>
+      </c>
+      <c r="K72" s="25">
+        <v>0.87221727515583258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1">
+      <c r="A73" s="40"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="23">
+        <v>0.19932432432432431</v>
+      </c>
+      <c r="H73" s="24">
+        <v>7.274777950091639E-2</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0.22797927461139897</v>
+      </c>
+      <c r="J73" s="24">
+        <v>1</v>
+      </c>
+      <c r="K73" s="25">
+        <v>9.8056994818652848E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1">
+      <c r="A74" s="40"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="23">
+        <v>0.80067567567567566</v>
+      </c>
+      <c r="H74" s="24">
+        <v>0.92725222049908362</v>
+      </c>
+      <c r="I74" s="24">
+        <v>0.77202072538860089</v>
+      </c>
+      <c r="J74" s="24">
+        <v>0</v>
+      </c>
+      <c r="K74" s="25">
+        <v>0.90194300518134729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1">
+      <c r="A75" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="23">
+        <v>0</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0</v>
+      </c>
+      <c r="I75" s="24">
+        <v>0</v>
+      </c>
+      <c r="J75" s="24">
+        <v>0</v>
+      </c>
+      <c r="K75" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1">
+      <c r="A76" s="40"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="23">
+        <v>0</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24">
+        <v>0</v>
+      </c>
+      <c r="J76" s="24">
+        <v>0</v>
+      </c>
+      <c r="K76" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1">
+      <c r="A77" s="40"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="23">
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H77" s="24">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="I77" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="J77" s="24">
+        <v>0</v>
+      </c>
+      <c r="K77" s="25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="40"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="23">
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="H78" s="24">
+        <v>0.93939393939393934</v>
+      </c>
+      <c r="I78" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="J78" s="24">
+        <v>0</v>
+      </c>
+      <c r="K78" s="25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1">
+      <c r="A79" s="40"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="23">
+        <v>0</v>
+      </c>
+      <c r="H79" s="24">
+        <v>9.6153846153846173E-2</v>
+      </c>
+      <c r="I79" s="24">
+        <v>0</v>
+      </c>
+      <c r="J79" s="24">
+        <v>1</v>
+      </c>
+      <c r="K79" s="25">
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1">
+      <c r="A80" s="40"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="23">
+        <v>1</v>
+      </c>
+      <c r="H80" s="24">
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="I80" s="24">
+        <v>0</v>
+      </c>
+      <c r="J80" s="24">
+        <v>0</v>
+      </c>
+      <c r="K80" s="25">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1">
+      <c r="A81" s="40"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="23">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H81" s="24">
+        <v>0.1417910447761194</v>
+      </c>
+      <c r="I81" s="24">
+        <v>0</v>
+      </c>
+      <c r="J81" s="24">
+        <v>1</v>
+      </c>
+      <c r="K81" s="25">
+        <v>0.17834394904458598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1">
+      <c r="A82" s="40"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="23">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H82" s="24">
+        <v>0.85820895522388052</v>
+      </c>
+      <c r="I82" s="24">
+        <v>1</v>
+      </c>
+      <c r="J82" s="24">
+        <v>0</v>
+      </c>
+      <c r="K82" s="25">
+        <v>0.82165605095541405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1">
+      <c r="A83" s="40"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="23">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H83" s="24">
+        <v>0.11872146118721461</v>
+      </c>
+      <c r="I83" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J83" s="24">
+        <v>1</v>
+      </c>
+      <c r="K83" s="25">
+        <v>0.15209125475285171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1">
+      <c r="A84" s="40"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="23">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H84" s="24">
+        <v>0.88127853881278539</v>
+      </c>
+      <c r="I84" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J84" s="24">
+        <v>0</v>
+      </c>
+      <c r="K84" s="25">
+        <v>0.84790874524714832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1">
+      <c r="A85" s="40"/>
+      <c r="B85" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="23">
+        <v>0</v>
+      </c>
+      <c r="H85" s="24">
+        <v>0</v>
+      </c>
+      <c r="I85" s="24">
+        <v>0</v>
+      </c>
+      <c r="J85" s="24">
+        <v>0</v>
+      </c>
+      <c r="K85" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1">
+      <c r="A86" s="40"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="23">
+        <v>0</v>
+      </c>
+      <c r="H86" s="24">
+        <v>0</v>
+      </c>
+      <c r="I86" s="24">
+        <v>0</v>
+      </c>
+      <c r="J86" s="24">
+        <v>0</v>
+      </c>
+      <c r="K86" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1">
+      <c r="A87" s="40"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="23">
+        <v>0</v>
+      </c>
+      <c r="H87" s="24">
+        <v>0</v>
+      </c>
+      <c r="I87" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J87" s="24">
+        <v>0</v>
+      </c>
+      <c r="K87" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1">
+      <c r="A88" s="40"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="23">
+        <v>1</v>
+      </c>
+      <c r="H88" s="24">
+        <v>1</v>
+      </c>
+      <c r="I88" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J88" s="24">
+        <v>0</v>
+      </c>
+      <c r="K88" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1">
+      <c r="A89" s="40"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="24">
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="I89" s="24">
+        <v>0</v>
+      </c>
+      <c r="J89" s="24">
+        <v>1</v>
+      </c>
+      <c r="K89" s="25">
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1">
+      <c r="A90" s="40"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H90" s="24">
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="I90" s="24">
+        <v>1</v>
+      </c>
+      <c r="J90" s="24">
+        <v>0</v>
+      </c>
+      <c r="K90" s="25">
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1">
+      <c r="A91" s="40"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H91" s="24">
+        <v>0.34567901234567899</v>
+      </c>
+      <c r="I91" s="24">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="J91" s="24">
+        <v>1</v>
+      </c>
+      <c r="K91" s="25">
+        <v>0.40487804878048783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1">
+      <c r="A92" s="40"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="23">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H92" s="24">
+        <v>0.65432098765432101</v>
+      </c>
+      <c r="I92" s="24">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="J92" s="24">
+        <v>0</v>
+      </c>
+      <c r="K92" s="25">
+        <v>0.59512195121951217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1">
+      <c r="A93" s="40"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="23">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H93" s="24">
+        <v>0.21985815602836881</v>
+      </c>
+      <c r="I93" s="24">
+        <v>0.18055555555555552</v>
+      </c>
+      <c r="J93" s="24">
+        <v>1</v>
+      </c>
+      <c r="K93" s="25">
+        <v>0.32967032967032961</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1">
+      <c r="A94" s="40"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="23">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="H94" s="24">
+        <v>0.78014184397163122</v>
+      </c>
+      <c r="I94" s="24">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="J94" s="24">
+        <v>0</v>
+      </c>
+      <c r="K94" s="25">
+        <v>0.67032967032967017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1">
+      <c r="A95" s="40"/>
+      <c r="B95" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="23">
+        <v>0</v>
+      </c>
+      <c r="H95" s="24">
+        <v>0</v>
+      </c>
+      <c r="I95" s="24">
+        <v>0</v>
+      </c>
+      <c r="J95" s="24">
+        <v>0</v>
+      </c>
+      <c r="K95" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1">
+      <c r="A96" s="40"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="23">
+        <v>0</v>
+      </c>
+      <c r="H96" s="24">
+        <v>0</v>
+      </c>
+      <c r="I96" s="24">
+        <v>0</v>
+      </c>
+      <c r="J96" s="24">
+        <v>0</v>
+      </c>
+      <c r="K96" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15" customHeight="1">
+      <c r="A97" s="40"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="23">
+        <v>0.11538461538461538</v>
+      </c>
+      <c r="H97" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I97" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J97" s="24">
+        <v>1</v>
+      </c>
+      <c r="K97" s="25">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1">
+      <c r="A98" s="40"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="23">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="H98" s="24">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I98" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J98" s="24">
+        <v>0</v>
+      </c>
+      <c r="K98" s="25">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1">
+      <c r="A99" s="40"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="23">
+        <v>0</v>
+      </c>
+      <c r="H99" s="24">
+        <v>0</v>
+      </c>
+      <c r="I99" s="24">
+        <v>0</v>
+      </c>
+      <c r="J99" s="24">
+        <v>1</v>
+      </c>
+      <c r="K99" s="25">
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1">
+      <c r="A100" s="40"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="23">
+        <v>0</v>
+      </c>
+      <c r="H100" s="24">
+        <v>1</v>
+      </c>
+      <c r="I100" s="24">
+        <v>0</v>
+      </c>
+      <c r="J100" s="24">
+        <v>0</v>
+      </c>
+      <c r="K100" s="25">
+        <v>0.83333333333333348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1">
+      <c r="A101" s="40"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="23">
+        <v>1</v>
+      </c>
+      <c r="H101" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="I101" s="24">
+        <v>0</v>
+      </c>
+      <c r="J101" s="24">
+        <v>0</v>
+      </c>
+      <c r="K101" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1">
+      <c r="A102" s="40"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="23">
+        <v>0</v>
+      </c>
+      <c r="H102" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="I102" s="24">
+        <v>0</v>
+      </c>
+      <c r="J102" s="24">
+        <v>0</v>
+      </c>
+      <c r="K102" s="25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1">
+      <c r="A103" s="40"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="23">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="H103" s="24">
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="I103" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J103" s="24">
+        <v>1</v>
+      </c>
+      <c r="K103" s="25">
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15" customHeight="1">
+      <c r="A104" s="40"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="23">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H104" s="24">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="I104" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J104" s="24">
+        <v>0</v>
+      </c>
+      <c r="K104" s="25">
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1">
+      <c r="A105" s="40"/>
+      <c r="B105" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="23">
+        <v>0</v>
+      </c>
+      <c r="H105" s="24">
+        <v>0</v>
+      </c>
+      <c r="I105" s="24">
+        <v>0</v>
+      </c>
+      <c r="J105" s="24">
+        <v>0</v>
+      </c>
+      <c r="K105" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1">
+      <c r="A106" s="40"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="23">
+        <v>0</v>
+      </c>
+      <c r="H106" s="24">
+        <v>0</v>
+      </c>
+      <c r="I106" s="24">
+        <v>0</v>
+      </c>
+      <c r="J106" s="24">
+        <v>0</v>
+      </c>
+      <c r="K106" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15" customHeight="1">
+      <c r="A107" s="40"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="23">
+        <v>0</v>
+      </c>
+      <c r="H107" s="24">
+        <v>0</v>
+      </c>
+      <c r="I107" s="24">
+        <v>0</v>
+      </c>
+      <c r="J107" s="24">
+        <v>0</v>
+      </c>
+      <c r="K107" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1">
+      <c r="A108" s="40"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="23">
+        <v>1</v>
+      </c>
+      <c r="H108" s="24">
+        <v>0</v>
+      </c>
+      <c r="I108" s="24">
+        <v>0</v>
+      </c>
+      <c r="J108" s="24">
+        <v>0</v>
+      </c>
+      <c r="K108" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1">
+      <c r="A109" s="40"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="23">
+        <v>0</v>
+      </c>
+      <c r="H109" s="24">
+        <v>0</v>
+      </c>
+      <c r="I109" s="24">
+        <v>0</v>
+      </c>
+      <c r="J109" s="24">
+        <v>0</v>
+      </c>
+      <c r="K109" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" customHeight="1">
+      <c r="A110" s="40"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="23">
+        <v>0</v>
+      </c>
+      <c r="H110" s="24">
+        <v>0</v>
+      </c>
+      <c r="I110" s="24">
+        <v>0</v>
+      </c>
+      <c r="J110" s="24">
+        <v>0</v>
+      </c>
+      <c r="K110" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15" customHeight="1">
+      <c r="A111" s="40"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="23">
+        <v>0</v>
+      </c>
+      <c r="H111" s="24">
+        <v>0</v>
+      </c>
+      <c r="I111" s="24">
+        <v>0</v>
+      </c>
+      <c r="J111" s="24">
+        <v>1</v>
+      </c>
+      <c r="K111" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15" customHeight="1">
+      <c r="A112" s="40"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="23">
+        <v>0</v>
+      </c>
+      <c r="H112" s="24">
+        <v>1</v>
+      </c>
+      <c r="I112" s="24">
+        <v>0</v>
+      </c>
+      <c r="J112" s="24">
+        <v>0</v>
+      </c>
+      <c r="K112" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15" customHeight="1">
+      <c r="A113" s="40"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="23">
+        <v>0</v>
+      </c>
+      <c r="H113" s="24">
+        <v>0</v>
+      </c>
+      <c r="I113" s="24">
+        <v>0</v>
+      </c>
+      <c r="J113" s="24">
+        <v>1</v>
+      </c>
+      <c r="K113" s="25">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A114" s="42"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="26">
+        <v>1</v>
+      </c>
+      <c r="H114" s="27">
+        <v>1</v>
+      </c>
+      <c r="I114" s="27">
+        <v>0</v>
+      </c>
+      <c r="J114" s="27">
+        <v>0</v>
+      </c>
+      <c r="K114" s="28">
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="12.95" customHeight="1" thickTop="1">
+      <c r="A115" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="142">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A56"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="C37:C46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:F64"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A114"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="C105:C114"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A115:K115"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
